--- a/Potential Customer List.xlsx
+++ b/Potential Customer List.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,101 +448,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WONG PAK FOUN</t>
+          <t>Ho Soung Ket</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ngo fung fung</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">WATT SOO KIANG </t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>wong shue li</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SZE CHIN YEE</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>JOEY KOID</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NG XIE ER</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NGOW YONG KAH MEI</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Kua ee lin</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>KOH MEI YAN</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
